--- a/autometingen.xlsx
+++ b/autometingen.xlsx
@@ -11,42 +11,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+  <si>
+    <t>distance sensor test</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>sensor left</t>
+  </si>
+  <si>
+    <t>sensor right</t>
+  </si>
+  <si>
+    <t>speedtest Fullspeed</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
   <si>
     <t>distance</t>
   </si>
   <si>
-    <t>manual</t>
-  </si>
-  <si>
-    <t>sensor left</t>
-  </si>
-  <si>
-    <t>sensor right</t>
-  </si>
-  <si>
-    <t>speedtest Fullspeed</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>speedtest halfspeed</t>
   </si>
   <si>
     <t>distance sensor delay</t>
   </si>
   <si>
+    <t>(auto kreeg stop command bij 150m. rechter colom is wanneer die stil stond)</t>
+  </si>
+  <si>
     <t>communication delay</t>
   </si>
   <si>
     <t>command and status</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>single command</t>
+    <t>status opvragen</t>
+  </si>
+  <si>
+    <t>command versturen</t>
   </si>
   <si>
     <t>turning radius(cm)</t>
@@ -64,6 +70,9 @@
     <t>dynamic sensor measurements</t>
   </si>
   <si>
+    <t>auto reed vanuit 5m naar 0m  toe</t>
+  </si>
+  <si>
     <t>left</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
   </si>
   <si>
     <t>1 tot 4</t>
+  </si>
+  <si>
+    <t>hangt af van obstakels in fov van sensor</t>
   </si>
 </sst>
 </file>
@@ -239,11 +251,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1593560088"/>
-        <c:axId val="1032674413"/>
+        <c:axId val="516087388"/>
+        <c:axId val="711630737"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1593560088"/>
+        <c:axId val="516087388"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -258,10 +270,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1032674413"/>
+        <c:crossAx val="711630737"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1032674413"/>
+        <c:axId val="711630737"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -292,7 +304,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1593560088"/>
+        <c:crossAx val="516087388"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -482,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -578,7 +590,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -641,7 +653,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -686,18 +701,18 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -815,7 +830,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -825,20 +840,25 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="78">
@@ -846,10 +866,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
@@ -898,15 +918,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87">
@@ -922,7 +943,7 @@
         <v>150.0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
@@ -930,7 +951,12 @@
         <v>350.0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/autometingen.xlsx
+++ b/autometingen.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>distance sensor test</t>
   </si>
@@ -95,13 +95,25 @@
   </si>
   <si>
     <t>hangt af van obstakels in fov van sensor</t>
+  </si>
+  <si>
+    <t>speedtest</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>full speed</t>
+  </si>
+  <si>
+    <t>sec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -111,6 +123,9 @@
       <b/>
     </font>
     <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -120,26 +135,113 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -251,11 +353,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="516087388"/>
-        <c:axId val="711630737"/>
+        <c:axId val="938153603"/>
+        <c:axId val="2069398513"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="516087388"/>
+        <c:axId val="938153603"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -270,10 +372,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711630737"/>
+        <c:crossAx val="2069398513"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="711630737"/>
+        <c:axId val="2069398513"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -304,7 +406,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516087388"/>
+        <c:crossAx val="938153603"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -321,15 +423,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -375,112 +477,112 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>24.0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>21.0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>22.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>12.0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>13.0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>14.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>60.0</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>56.0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>57.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>100.0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>100.0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>99.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>150.0</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>146.0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>148.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>200.0</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>196.0</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>198.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>250.0</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>245.0</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>245.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>280.0</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>274.0</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>274.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>320.0</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>274.0</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>300.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>420.0</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>338.0</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>339.0</v>
       </c>
     </row>
@@ -490,100 +592,100 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="6">
         <v>0.0</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="6">
         <v>0.1</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="6">
         <v>0.06</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="6">
         <v>0.2</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="6">
         <v>0.07</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="6">
         <v>0.3</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="6">
         <v>0.2</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="6">
         <v>0.4</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="6">
         <v>0.5</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="6">
         <v>0.4</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="6">
         <v>1.0</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="6">
         <v>1.12</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="6">
         <v>1.5</v>
       </c>
-      <c r="B26" s="2" t="str">
+      <c r="B26" s="6" t="str">
         <f>2.54-0.65</f>
         <v>1.89</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="6">
         <v>1.75</v>
       </c>
-      <c r="B27" s="2" t="str">
+      <c r="B27" s="6" t="str">
         <f>3.1-0.65</f>
         <v>2.45</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="6">
         <v>2.0</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="6">
         <v>3.04</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="6">
         <v>2.5</v>
       </c>
-      <c r="B29" s="2" t="str">
+      <c r="B29" s="6" t="str">
         <f>4.74-0.6</f>
         <v>4.14</v>
       </c>
@@ -594,39 +696,39 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="6">
         <v>0.0</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="6">
         <v>0.2</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="6">
         <v>0.03</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="6">
         <v>0.5</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="6">
         <v>0.11</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="6">
         <v>1.0</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="6">
         <v>0.35</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="6">
         <v>1.5</v>
       </c>
       <c r="B36" t="str">
@@ -635,7 +737,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="6">
         <v>2.0</v>
       </c>
       <c r="B37" t="str">
@@ -644,10 +746,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="6">
         <v>2.5</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="6">
         <v>1.1</v>
       </c>
     </row>
@@ -655,47 +757,47 @@
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2">
+      <c r="A43" s="6">
         <v>150.0</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="6">
         <v>93.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2">
+      <c r="A44" s="6">
         <v>150.0</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="6">
         <v>104.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45" s="6">
         <v>150.0</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="6">
         <v>88.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2">
+      <c r="A46" s="6">
         <v>150.0</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="6">
         <v>104.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2">
+      <c r="A47" s="6">
         <v>150.0</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="6">
         <v>104.0</v>
       </c>
     </row>
@@ -705,123 +807,123 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2">
+      <c r="A54" s="6">
         <v>0.152</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="6">
         <v>0.079</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="6">
         <v>0.038</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2">
+      <c r="A55" s="6">
         <v>0.144</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="6">
         <v>0.106</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="6">
         <v>0.068</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2">
+      <c r="A56" s="6">
         <v>0.142</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="6">
         <v>0.103</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="6">
         <v>0.037</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2">
+      <c r="A57" s="6">
         <v>0.182</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="6">
         <v>0.103</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="6">
         <v>0.068</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58" s="6">
         <v>0.144</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="6">
         <v>0.133</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="6">
         <v>0.046</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2">
+      <c r="A59" s="6">
         <v>0.226</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="6">
         <v>0.07</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="6">
         <v>0.068</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2">
+      <c r="A60" s="6">
         <v>0.149</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="6">
         <v>0.105</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="6">
         <v>0.036</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2">
+      <c r="A61" s="6">
         <v>0.182</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="6">
         <v>0.103</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="6">
         <v>0.068</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2">
+      <c r="A62" s="6">
         <v>0.171</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="6">
         <v>0.127</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="6">
         <v>0.036</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63" s="6">
         <v>0.173</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="6">
         <v>0.112</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="6">
         <v>0.068</v>
       </c>
     </row>
@@ -834,7 +936,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2">
+      <c r="A70" s="6">
         <v>50.0</v>
       </c>
     </row>
@@ -844,10 +946,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -857,62 +959,62 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2">
+      <c r="A79" s="6">
         <v>300.0</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="6">
         <v>324.0</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="6">
         <v>335.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2">
+      <c r="A80" s="6">
         <v>200.0</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="6">
         <v>216.0</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="6">
         <v>229.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2">
+      <c r="A81" s="6">
         <v>100.0</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="6">
         <v>141.0</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="6">
         <v>137.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2">
+      <c r="A82" s="6">
         <v>50.0</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="6">
         <v>100.0</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="6">
         <v>101.0</v>
       </c>
     </row>
@@ -920,44 +1022,596 @@
       <c r="A85" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C85" s="2"/>
+      <c r="C85" s="6"/>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2">
+      <c r="A87" s="6">
         <v>40.0</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2">
+      <c r="A88" s="6">
         <v>150.0</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2">
+      <c r="A89" s="6">
         <v>350.0</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="6" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="98">
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K99" s="9"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="B102" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="B103" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C103" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="8" t="str">
+        <f t="shared" ref="E103:E121" si="1">D103-B103</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K103" s="8"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="B104" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C104" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="F104" s="10"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K104" s="8"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="B105" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C105" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D105" s="9"/>
+      <c r="E105" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="K105" s="8"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="B106" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="C106" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="K106" s="8"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="B107" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="C107" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K107" s="8"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="B108" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="C108" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="K108" s="8"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="B109" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="C109" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="F109" s="10"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="K109" s="8"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="B110" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="C110" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D110" s="9"/>
+      <c r="E110" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+      <c r="F110" s="10"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="K110" s="8"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="B111" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="C111" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="D111" s="9"/>
+      <c r="E111" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-22</v>
+      </c>
+      <c r="F111" s="10"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="K111" s="8"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B112" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="C112" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="D112" s="9"/>
+      <c r="E112" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-27</v>
+      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="K112" s="8"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="C113" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="D113" s="9"/>
+      <c r="E113" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F113" s="13"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="K113" s="8"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="C114" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="D114" s="9"/>
+      <c r="E114" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="13"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="K114" s="8"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="B115" s="6">
+        <v>60.0</v>
+      </c>
+      <c r="C115" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D115" s="9"/>
+      <c r="E115" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-60</v>
+      </c>
+      <c r="F115" s="13"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="K115" s="13">
+        <v>210.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="C116" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="D116" s="9"/>
+      <c r="E116" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="13"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="K116" s="10">
+        <v>220.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="B117" s="6">
+        <v>70.0</v>
+      </c>
+      <c r="C117" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="D117" s="14">
+        <v>106.0</v>
+      </c>
+      <c r="E117" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F117" s="10"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="K117" s="10">
+        <v>240.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="B118" s="6">
+        <v>85.0</v>
+      </c>
+      <c r="C118" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="D118" s="10">
+        <v>112.0</v>
+      </c>
+      <c r="E118" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F118" s="13"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="K118" s="10">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="B119" s="6">
+        <v>110.0</v>
+      </c>
+      <c r="C119" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="D119" s="14">
+        <v>150.0</v>
+      </c>
+      <c r="E119" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F119" s="10"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="B120" s="6">
+        <v>250.0</v>
+      </c>
+      <c r="C120" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="D120" s="9"/>
+      <c r="E120" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-250</v>
+      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="K120" s="10">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="B121" s="6">
+        <v>290.0</v>
+      </c>
+      <c r="C121" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="D121" s="9"/>
+      <c r="E121" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-290</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="K121" s="9"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="10"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="K122" s="9"/>
+    </row>
+    <row r="124">
+      <c r="D124" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
